--- a/console/Networking/networkExcel1029/elasticNetworkMixinsXlsx/components/createdElasticDialog.xlsx
+++ b/console/Networking/networkExcel1029/elasticNetworkMixinsXlsx/components/createdElasticDialog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhaoxiangyi\Desktop\11.1\2018.11.1 京东云console-精益通-韩凯\质检-1810-31_HO_console-译文-提交\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\han\Desktop\京东云-返工\20. 弹性网卡控制台国际化翻译校对\3. 客户确认版-更新至github\弹性网卡确认-GTCOM-haopeng1108-需更新至github\elasticNetworkMixinsXlsx_haopeng1106-R\elasticNetworkMixinsXlsx\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterate="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -569,18 +569,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Virtual Private Cloud</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Subnet</t>
     </r>
   </si>
@@ -605,30 +593,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Number of Available IPs in Subnet</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IP Quota</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Assign IP</t>
     </r>
   </si>
@@ -729,22 +693,26 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Please fill in the correct IP address</t>
-    </r>
+    <t>VPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subnet IP Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENI IP Quota</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please enter a valid IP address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1127,8 +1095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1199,8 +1167,8 @@
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>45</v>
+      <c r="C6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1211,7 +1179,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1222,7 +1190,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1232,8 +1200,8 @@
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>48</v>
+      <c r="C9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1243,8 +1211,8 @@
       <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>49</v>
+      <c r="C10" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1255,7 +1223,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1266,7 +1234,7 @@
         <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1277,7 +1245,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1288,7 +1256,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.2">
@@ -1299,7 +1267,7 @@
         <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1310,7 +1278,7 @@
         <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1321,7 +1289,7 @@
         <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1332,7 +1300,7 @@
         <v>35</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="0.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1343,7 +1311,7 @@
         <v>37</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1353,13 +1321,14 @@
       <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A1:B20" numberStoredAsText="1"/>
   </ignoredErrors>
